--- a/data-raw/mean_tbill_level.xlsx
+++ b/data-raw/mean_tbill_level.xlsx
@@ -240,7 +240,7 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L226"/>
+  <dimension ref="A1:L228"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomRight" state="frozen"/>
@@ -8850,7 +8850,83 @@
         <v>3.1167</v>
       </c>
     </row>
-    <row r="227" ht="13" customHeight="1"/>
+    <row r="227" ht="15" customHeight="1">
+      <c r="A227" s="3">
+        <v>2025.0000</v>
+      </c>
+      <c r="B227" s="3">
+        <v>1.0000</v>
+      </c>
+      <c r="C227" s="4">
+        <v>4.4000</v>
+      </c>
+      <c r="D227" s="4">
+        <v>4.3551</v>
+      </c>
+      <c r="E227" s="4">
+        <v>4.2512</v>
+      </c>
+      <c r="F227" s="4">
+        <v>4.0922</v>
+      </c>
+      <c r="G227" s="4">
+        <v>3.9179</v>
+      </c>
+      <c r="H227" s="4">
+        <v>3.7537</v>
+      </c>
+      <c r="I227" s="4">
+        <v>4.1525</v>
+      </c>
+      <c r="J227" s="4">
+        <v>3.6144</v>
+      </c>
+      <c r="K227" s="4">
+        <v>3.1309</v>
+      </c>
+      <c r="L227" s="4">
+        <v>3.0977</v>
+      </c>
+    </row>
+    <row r="228" ht="15" customHeight="1">
+      <c r="A228" s="3">
+        <v>2025.0000</v>
+      </c>
+      <c r="B228" s="3">
+        <v>2.0000</v>
+      </c>
+      <c r="C228" s="4">
+        <v>4.2099</v>
+      </c>
+      <c r="D228" s="4">
+        <v>4.2364</v>
+      </c>
+      <c r="E228" s="4">
+        <v>4.0674</v>
+      </c>
+      <c r="F228" s="4">
+        <v>3.8304</v>
+      </c>
+      <c r="G228" s="4">
+        <v>3.5794</v>
+      </c>
+      <c r="H228" s="4">
+        <v>3.4594</v>
+      </c>
+      <c r="I228" s="4">
+        <v>4.1005</v>
+      </c>
+      <c r="J228" s="4">
+        <v>3.4238</v>
+      </c>
+      <c r="K228" s="4">
+        <v>3.1680</v>
+      </c>
+      <c r="L228" s="4">
+        <v>3.1409</v>
+      </c>
+    </row>
+    <row r="229" ht="13" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/data-raw/mean_tbill_level.xlsx
+++ b/data-raw/mean_tbill_level.xlsx
@@ -240,7 +240,7 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L228"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomRight" state="frozen"/>
@@ -8926,7 +8926,45 @@
         <v>3.1409</v>
       </c>
     </row>
-    <row r="229" ht="13" customHeight="1"/>
+    <row r="229" ht="15" customHeight="1">
+      <c r="A229" s="3">
+        <v>2025.0000</v>
+      </c>
+      <c r="B229" s="3">
+        <v>3.0000</v>
+      </c>
+      <c r="C229" s="4">
+        <v>4.2300</v>
+      </c>
+      <c r="D229" s="4">
+        <v>4.1771</v>
+      </c>
+      <c r="E229" s="4">
+        <v>3.9643</v>
+      </c>
+      <c r="F229" s="4">
+        <v>3.7310</v>
+      </c>
+      <c r="G229" s="4">
+        <v>3.5559</v>
+      </c>
+      <c r="H229" s="4">
+        <v>3.3982</v>
+      </c>
+      <c r="I229" s="4">
+        <v>4.1658</v>
+      </c>
+      <c r="J229" s="4">
+        <v>3.4740</v>
+      </c>
+      <c r="K229" s="4">
+        <v>3.1778</v>
+      </c>
+      <c r="L229" s="4">
+        <v>3.0614</v>
+      </c>
+    </row>
+    <row r="230" ht="13" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/data-raw/mean_tbill_level.xlsx
+++ b/data-raw/mean_tbill_level.xlsx
@@ -240,7 +240,7 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L229"/>
+  <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomRight" state="frozen"/>
@@ -8964,7 +8964,45 @@
         <v>3.0614</v>
       </c>
     </row>
-    <row r="230" ht="13" customHeight="1"/>
+    <row r="230" ht="15" customHeight="1">
+      <c r="A230" s="3">
+        <v>2025.0000</v>
+      </c>
+      <c r="B230" s="3">
+        <v>4.0000</v>
+      </c>
+      <c r="C230" s="4">
+        <v>4.0999</v>
+      </c>
+      <c r="D230" s="4">
+        <v>3.8467</v>
+      </c>
+      <c r="E230" s="4">
+        <v>3.6151</v>
+      </c>
+      <c r="F230" s="4">
+        <v>3.4153</v>
+      </c>
+      <c r="G230" s="4">
+        <v>3.2833</v>
+      </c>
+      <c r="H230" s="4">
+        <v>3.1822</v>
+      </c>
+      <c r="I230" s="4">
+        <v>4.1061</v>
+      </c>
+      <c r="J230" s="4">
+        <v>3.3664</v>
+      </c>
+      <c r="K230" s="4">
+        <v>3.1532</v>
+      </c>
+      <c r="L230" s="4">
+        <v>3.1050</v>
+      </c>
+    </row>
+    <row r="231" ht="13" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
